--- a/src/test/resources/DataDrive/testData.xlsx
+++ b/src/test/resources/DataDrive/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\SeleniumWebDriverAutomationProjects\DataDrivenFramework\src\test\resources\DataDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB8B514-2055-48FC-AF7E-FDAB59C59C0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9657695-A8E9-49D4-89DC-77BAE2113BDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9A49DE4F-9FE7-45C7-99E5-42EDB371FA03}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>firstName</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Rupee</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Tyagi</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -414,13 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F384958B-4021-4073-8E87-3C9E8C61C7E7}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -447,6 +459,20 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -461,10 +487,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/src/test/resources/DataDrive/testData.xlsx
+++ b/src/test/resources/DataDrive/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\SeleniumWebDriverAutomationProjects\DataDrivenFramework\src\test\resources\DataDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9657695-A8E9-49D4-89DC-77BAE2113BDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D386228A-E288-42A9-8D22-B8D9589D86C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9A49DE4F-9FE7-45C7-99E5-42EDB371FA03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9A49DE4F-9FE7-45C7-99E5-42EDB371FA03}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="TestSuite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>firstName</t>
   </si>
@@ -71,6 +72,27 @@
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -423,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F384958B-4021-4073-8E87-3C9E8C61C7E7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +456,7 @@
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +469,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -461,8 +486,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -474,6 +502,9 @@
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23840DE-3CD5-43E3-9810-5ADE3ADFF1A2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -514,4 +545,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF04DE6-A28A-4A9D-80FB-1DEE5CA2B2C3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/DataDrive/testData.xlsx
+++ b/src/test/resources/DataDrive/testData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\SeleniumWebDriverAutomationProjects\DataDrivenFramework\src\test\resources\DataDrive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D386228A-E288-42A9-8D22-B8D9589D86C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D371D4E7-FBED-4843-939D-543CA44DE7E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9A49DE4F-9FE7-45C7-99E5-42EDB371FA03}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20760" windowHeight="11820" xr2:uid="{9A49DE4F-9FE7-45C7-99E5-42EDB371FA03}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="TestSuite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:D2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F384958B-4021-4073-8E87-3C9E8C61C7E7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -517,9 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23840DE-3CD5-43E3-9810-5ADE3ADFF1A2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -551,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF04DE6-A28A-4A9D-80FB-1DEE5CA2B2C3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/DataDrive/testData.xlsx
+++ b/src/test/resources/DataDrive/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D371D4E7-FBED-4843-939D-543CA44DE7E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7D0A2660-2083-4A11-B88E-69B21D0EE646}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20760" windowHeight="11820" xr2:uid="{9A49DE4F-9FE7-45C7-99E5-42EDB371FA03}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" firstSheet="2" activeTab="2" xr2:uid="{9A49DE4F-9FE7-45C7-99E5-42EDB371FA03}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="TestSuite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D2"/>
+  <oleSize ref="A3:F4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -443,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F384958B-4021-4073-8E87-3C9E8C61C7E7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -545,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF04DE6-A28A-4A9D-80FB-1DEE5CA2B2C3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
